--- a/sputnik/personal/uch/uch259.xlsx
+++ b/sputnik/personal/uch/uch259.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
   <si>
     <t xml:space="preserve">Начислено </t>
-  </si>
-  <si>
-    <t>Наименование</t>
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
@@ -35,12 +32,18 @@
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №259</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,7 +82,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,32 +118,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -169,15 +154,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,9 +491,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -519,7 +508,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10266.969999999999</v>
@@ -531,7 +520,7 @@
         <v>43309</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -543,7 +532,7 @@
         <v>43337</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -555,7 +544,7 @@
         <v>43586</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>10121.209999999999</v>
@@ -567,7 +556,7 @@
         <v>43646</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7">
@@ -593,9 +582,6 @@
       <c r="D10" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch259.xlsx
+++ b/sputnik/personal/uch/uch259.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -37,13 +37,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №259</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,6 +169,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -226,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,10 +262,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +296,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -469,17 +471,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -488,8 +490,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -503,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -515,7 +517,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="12">
         <v>43309</v>
       </c>
@@ -527,7 +529,7 @@
         <v>5266.97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="12">
         <v>43337</v>
       </c>
@@ -539,7 +541,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="13">
         <v>43586</v>
       </c>
@@ -551,7 +553,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="12">
         <v>43646</v>
       </c>
@@ -563,19 +565,25 @@
         <v>10121.209999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>11387.5</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -589,12 +597,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,12 +611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch259.xlsx
+++ b/sputnik/personal/uch/uch259.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -45,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,9 +262,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,6 +297,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -471,17 +473,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -490,8 +492,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -505,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -517,7 +519,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43309</v>
       </c>
@@ -529,7 +531,7 @@
         <v>5266.97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43337</v>
       </c>
@@ -541,7 +543,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43586</v>
       </c>
@@ -553,7 +555,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43646</v>
       </c>
@@ -565,7 +567,7 @@
         <v>10121.209999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43952</v>
       </c>
@@ -577,13 +579,19 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="9">
+        <v>11387.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -597,12 +605,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -611,12 +619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch259.xlsx
+++ b/sputnik/personal/uch/uch259.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,9 +595,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>12143.63</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch259.xlsx
+++ b/sputnik/personal/uch/uch259.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +173,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,6 +608,18 @@
         <v>12143.63</v>
       </c>
       <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44470</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
+        <v>12143.63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
